--- a/advanced_attributes_functions.xlsx
+++ b/advanced_attributes_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7C93F-3FEA-4C05-99E7-0807E44C72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B5260-B14B-4527-9C02-B63017650E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{02B9613D-5AF3-488B-9894-4950DE6A006A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="363">
   <si>
     <t>Syntax</t>
   </si>
@@ -1277,6 +1277,9 @@
       </rPr>
       <t>Attribute functions can be written to call out to external API endpoints to obtain values.</t>
     </r>
+  </si>
+  <si>
+    <t>Attribute Rule Syntax</t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278661CC-602B-4206-8DD8-904FAB689919}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>

--- a/advanced_attributes_functions.xlsx
+++ b/advanced_attributes_functions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B5260-B14B-4527-9C02-B63017650E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F38D5-049D-45F2-B34E-1866FCAC42C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{02B9613D-5AF3-488B-9894-4950DE6A006A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Syntax" sheetId="1" r:id="rId1"/>
+    <sheet name="Operators" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="363">
-  <si>
-    <t>Syntax</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="340">
   <si>
     <t>Description</t>
   </si>
@@ -224,24 +222,6 @@
     <t>updateUser('6050007SGF', {'3':'jessica@redbank.com', '3f31edcf-19e8-46a4-b87e-e50c25dc1358':'President', 'mobile_number': '502513585', 'work_country': 'Singapore'})</t>
   </si>
   <si>
-    <t>idsuser.$property</t>
-  </si>
-  <si>
-    <t>Access $property . The value in idsuser is always an arrayof strings.</t>
-  </si>
-  <si>
-    <t>idsuser.getValue($property)</t>
-  </si>
-  <si>
-    <t>Returns the value of $property as a string. If the value array has multipleentries, the first item is returned. If the $property does not exist, an emptystring is returned.</t>
-  </si>
-  <si>
-    <t>idsuser.getValues($property)</t>
-  </si>
-  <si>
-    <t>Returns all the values of $property as a string array. If the $property does not exist, a nil object is returned.</t>
-  </si>
-  <si>
     <t>Operator</t>
   </si>
   <si>
@@ -461,9 +441,6 @@
     <t>Returns the index of the last occurrence of $str .</t>
   </si>
   <si>
-    <t>String functions</t>
-  </si>
-  <si>
     <t>HELLO</t>
   </si>
   <si>
@@ -539,9 +516,6 @@
     <t>hello.lastIndexOf("l")</t>
   </si>
   <si>
-    <t>List functions</t>
-  </si>
-  <si>
     <t>$values.size()</t>
   </si>
   <si>
@@ -663,9 +637,6 @@
   </si>
   <si>
     <t>Computes the HMAC-SHA1 value with the key $key for the given string.</t>
-  </si>
-  <si>
-    <t>Hash functions</t>
   </si>
   <si>
     <r>
@@ -740,60 +711,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Identity source credential</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When a user logs in to Verify, the identity source credential attributes are added into the login session and can be accessed in a custom function. Consider that the user logs in with a SAML federated identity provider and the SAML assertion contains an attribute statement that is called userRoles and it is set to marketing and helpdesk.</t>
-    </r>
-  </si>
-  <si>
-    <t>helpdesk</t>
-  </si>
-  <si>
-    <t>"Marketing"</t>
-  </si>
-  <si>
-    <t>["Marketing", "helpdesk]"</t>
-  </si>
-  <si>
-    <t>idsuser.userRoles[1]</t>
-  </si>
-  <si>
-    <t>idsuser.getValue('userRoles')</t>
-  </si>
-  <si>
-    <t>idsuser.getValues('userRoles')</t>
-  </si>
-  <si>
     <t>`2cf24dba...`</t>
   </si>
   <si>
@@ -818,9 +735,6 @@
     <t>20 / 4</t>
   </si>
   <si>
-    <t>Hex/Base64 functions</t>
-  </si>
-  <si>
     <t>base64ToHex($value)</t>
   </si>
   <si>
@@ -920,9 +834,6 @@
     <t>Removes all mappings for the list of keys $l from the map $m if present.</t>
   </si>
   <si>
-    <t>Map and Object functions</t>
-  </si>
-  <si>
     <t>"{\hello\":\"world\"}"</t>
   </si>
   <si>
@@ -1056,9 +967,6 @@
   </si>
   <si>
     <t>Returns the timestamp $t in the format $s . The $s must use the reference time "Monday, 02-January-06 15:04:05 MST" in the formatthat is wanted.</t>
-  </si>
-  <si>
-    <t>Timestamp functions</t>
   </si>
   <si>
     <t>"2021-08-17T08:24:58Z"</t>
@@ -1162,9 +1070,6 @@
     <t>Returns a string representing the decoded version of the encoded URI component $uri .</t>
   </si>
   <si>
-    <t>URI encoding and decoding functions</t>
-  </si>
-  <si>
     <t>"test.html?name=J%C3%BCrgen&amp;car=audi"</t>
   </si>
   <si>
@@ -1192,9 +1097,6 @@
     <t>4eb1a3f3-5461-4b91-8d69-69e25f2a1b6a</t>
   </si>
   <si>
-    <t>UUID functions</t>
-  </si>
-  <si>
     <t>hc.GetAsString($url, $headers)</t>
   </si>
   <si>
@@ -1241,42 +1143,6 @@
   </si>
   <si>
     <t>hc.GetAsJson("https://api.jke.com/resources/" + user.name.givenName, {"Authorization":"Some token"}).value</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HTTP Client</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Attribute functions can be written to call out to external API endpoints to obtain values.</t>
-    </r>
   </si>
   <si>
     <t>Attribute Rule Syntax</t>
@@ -1342,24 +1208,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278661CC-602B-4206-8DD8-904FAB689919}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,120 +1570,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1831,1507 +1691,1251 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="b">
         <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" t="s">
-        <v>213</v>
+        <v>145</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>150</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>151</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>152</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>153</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>154</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>225</v>
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>157</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>226</v>
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>161</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>187</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>188</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="A42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
+        <v>249</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" t="s">
-        <v>147</v>
+        <v>250</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
+        <v>255</v>
+      </c>
+      <c r="D58" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
+        <v>254</v>
+      </c>
+      <c r="D59" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="A60" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>19</v>
+      <c r="A61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
+        <v>258</v>
+      </c>
+      <c r="D62" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
+        <v>292</v>
+      </c>
+      <c r="D64">
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
+        <v>293</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>268</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" t="s">
-        <v>190</v>
+        <v>295</v>
+      </c>
+      <c r="D67">
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68" t="s">
-        <v>191</v>
+        <v>296</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" t="s">
-        <v>192</v>
+        <v>297</v>
+      </c>
+      <c r="D69">
+        <v>2021</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" t="s">
-        <v>193</v>
+        <v>298</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" t="s">
-        <v>194</v>
+        <v>299</v>
+      </c>
+      <c r="D71">
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="A72" t="s">
+        <v>278</v>
+      </c>
+      <c r="B72" t="s">
+        <v>279</v>
+      </c>
+      <c r="C72" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72">
+        <v>58</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>19</v>
+      <c r="A73" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73">
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
-      </c>
-      <c r="D74" t="s">
-        <v>219</v>
+        <v>302</v>
+      </c>
+      <c r="D74">
+        <v>1629188698</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="D75" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="A77" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>19</v>
+      <c r="A78" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="B81" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>234</v>
-      </c>
-      <c r="B82" t="s">
-        <v>235</v>
-      </c>
-      <c r="C82" t="s">
-        <v>243</v>
-      </c>
-      <c r="D82" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" t="s">
+        <v>338</v>
+      </c>
+      <c r="D83" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>326</v>
+      </c>
+      <c r="B84" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B85" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B86" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>248</v>
-      </c>
-      <c r="B87" t="s">
-        <v>249</v>
-      </c>
-      <c r="C87" t="s">
-        <v>270</v>
-      </c>
-      <c r="D87" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>181</v>
-      </c>
-      <c r="B88" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88" t="s">
-        <v>271</v>
-      </c>
-      <c r="D88" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>251</v>
-      </c>
-      <c r="B89" t="s">
-        <v>252</v>
-      </c>
-      <c r="C89" t="s">
-        <v>272</v>
-      </c>
-      <c r="D89" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>253</v>
-      </c>
-      <c r="B90" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" t="s">
-        <v>274</v>
-      </c>
-      <c r="D90" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>255</v>
-      </c>
-      <c r="B91" t="s">
-        <v>256</v>
-      </c>
-      <c r="C91" t="s">
-        <v>273</v>
-      </c>
-      <c r="D91" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>257</v>
-      </c>
-      <c r="B92" t="s">
-        <v>258</v>
-      </c>
-      <c r="C92" t="s">
-        <v>275</v>
-      </c>
-      <c r="D92" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>259</v>
-      </c>
-      <c r="B93" t="s">
-        <v>260</v>
-      </c>
-      <c r="C93" t="s">
-        <v>276</v>
-      </c>
-      <c r="D93" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>277</v>
-      </c>
-      <c r="B96" t="s">
-        <v>278</v>
-      </c>
-      <c r="C96" t="s">
-        <v>277</v>
-      </c>
-      <c r="D96" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>279</v>
-      </c>
-      <c r="B97" t="s">
-        <v>280</v>
-      </c>
-      <c r="C97" t="s">
-        <v>311</v>
-      </c>
-      <c r="D97" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>281</v>
-      </c>
-      <c r="B98" t="s">
-        <v>282</v>
-      </c>
-      <c r="C98" t="s">
-        <v>312</v>
-      </c>
-      <c r="D98">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>283</v>
-      </c>
-      <c r="B99" t="s">
-        <v>284</v>
-      </c>
-      <c r="C99" t="s">
-        <v>313</v>
-      </c>
-      <c r="D99">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>285</v>
-      </c>
-      <c r="B100" t="s">
-        <v>286</v>
-      </c>
-      <c r="C100" t="s">
-        <v>314</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>287</v>
-      </c>
-      <c r="B101" t="s">
-        <v>288</v>
-      </c>
-      <c r="C101" t="s">
-        <v>315</v>
-      </c>
-      <c r="D101">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>289</v>
-      </c>
-      <c r="B102" t="s">
-        <v>290</v>
-      </c>
-      <c r="C102" t="s">
-        <v>316</v>
-      </c>
-      <c r="D102">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>291</v>
-      </c>
-      <c r="B103" t="s">
-        <v>292</v>
-      </c>
-      <c r="C103" t="s">
-        <v>317</v>
-      </c>
-      <c r="D103">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>293</v>
-      </c>
-      <c r="B104" t="s">
-        <v>294</v>
-      </c>
-      <c r="C104" t="s">
-        <v>318</v>
-      </c>
-      <c r="D104">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>295</v>
-      </c>
-      <c r="B105" t="s">
-        <v>296</v>
-      </c>
-      <c r="C105" t="s">
-        <v>319</v>
-      </c>
-      <c r="D105">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>297</v>
-      </c>
-      <c r="B106" t="s">
-        <v>298</v>
-      </c>
-      <c r="C106" t="s">
-        <v>320</v>
-      </c>
-      <c r="D106">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>299</v>
-      </c>
-      <c r="B107" t="s">
-        <v>300</v>
-      </c>
-      <c r="C107" t="s">
-        <v>321</v>
-      </c>
-      <c r="D107">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>301</v>
-      </c>
-      <c r="B108" t="s">
-        <v>302</v>
-      </c>
-      <c r="C108" t="s">
-        <v>322</v>
-      </c>
-      <c r="D108">
-        <v>1629188698</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>303</v>
-      </c>
-      <c r="B109" t="s">
-        <v>304</v>
-      </c>
-      <c r="C109" t="s">
-        <v>323</v>
-      </c>
-      <c r="D109" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>305</v>
-      </c>
-      <c r="B110" t="s">
-        <v>306</v>
-      </c>
-      <c r="C110" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>326</v>
-      </c>
-      <c r="B113" t="s">
-        <v>327</v>
-      </c>
-      <c r="C113" t="s">
-        <v>338</v>
-      </c>
-      <c r="D113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>328</v>
-      </c>
-      <c r="B114" t="s">
-        <v>329</v>
-      </c>
-      <c r="C114" t="s">
-        <v>339</v>
-      </c>
-      <c r="D114" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>330</v>
-      </c>
-      <c r="B115" t="s">
-        <v>331</v>
-      </c>
-      <c r="C115" t="s">
-        <v>338</v>
-      </c>
-      <c r="D115" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
         <v>332</v>
       </c>
-      <c r="B116" t="s">
-        <v>333</v>
-      </c>
-      <c r="C116" t="s">
-        <v>340</v>
-      </c>
-      <c r="D116" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>341</v>
-      </c>
-      <c r="B119" t="s">
-        <v>342</v>
-      </c>
-      <c r="C119" t="s">
-        <v>341</v>
-      </c>
-      <c r="D119" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>345</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>346</v>
-      </c>
-      <c r="B123" t="s">
-        <v>347</v>
-      </c>
-      <c r="C123" t="s">
-        <v>360</v>
-      </c>
-      <c r="D123" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>348</v>
-      </c>
-      <c r="B124" t="s">
-        <v>349</v>
-      </c>
-      <c r="C124" t="s">
-        <v>358</v>
-      </c>
-      <c r="D124" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>350</v>
-      </c>
-      <c r="B125" t="s">
-        <v>351</v>
-      </c>
-      <c r="C125" t="s">
-        <v>359</v>
-      </c>
-      <c r="D125" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>352</v>
-      </c>
-      <c r="B126" t="s">
-        <v>353</v>
-      </c>
-      <c r="C126" t="s">
-        <v>354</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="B122:E122"/>
+  <mergeCells count="2">
+    <mergeCell ref="B82:E82"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A94:D94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CCD0C4-FCD0-4C8C-8BBE-52528278685F}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>